--- a/MainTop/28.10.2024/WB_поставка_max.xlsx
+++ b/MainTop/28.10.2024/WB_поставка_max.xlsx
@@ -278,8 +278,8 @@
   </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,7 +348,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,7 +356,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
